--- a/test/board.xlsx
+++ b/test/board.xlsx
@@ -12,24 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>test</t>
+    <t>test2</t>
   </si>
   <si>
-    <t>test message</t>
+    <t>testtest</t>
   </si>
   <si>
     <t>작성</t>
-  </si>
-  <si>
-    <t>Test Message</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>수정</t>
   </si>
 </sst>
 </file>
@@ -68,17 +59,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -86,7 +76,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B1" t="n">
         <v>1.0</v>
@@ -98,30 +88,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="n" s="1">
-        <v>44180.65443689815</v>
+        <v>44181.723607210646</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="n" s="2">
-        <v>44180.655537349536</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
